--- a/biology/Zoologie/Cercoïde/Cercoïde.xlsx
+++ b/biology/Zoologie/Cercoïde/Cercoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cerco%C3%AFde</t>
+          <t>Cercoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cercoïdes correspondent à des appendices situés à l'extrémité de l'abdomen de certains insectes.
 Le mot vient du grec ancien « kerkos » qui signifie « queue ».
 La représentation la plus évidente d'un cercoïde peut être visualisée chez des odonates (libellules). Ils sont au nombre de deux.
-Ils jouent un rôle dans l'accouplement (photo) ou dans le vol en tandem, qui se poursuit lors de la ponte chez certaines espèces d'odonates[1].
+Ils jouent un rôle dans l'accouplement (photo) ou dans le vol en tandem, qui se poursuit lors de la ponte chez certaines espèces d'odonates.
 Les cercoïdes sont plus développés chez les mâles de certaines espèces (cas de Erythromma lindenii).
 </t>
         </is>
